--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.013731</v>
+      </c>
+      <c r="H2">
+        <v>0.041193</v>
+      </c>
+      <c r="I2">
+        <v>0.0005742988327511807</v>
+      </c>
+      <c r="J2">
+        <v>0.0005742988327511806</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.3897156666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.169147</v>
-      </c>
-      <c r="I2">
-        <v>0.01604749516233659</v>
-      </c>
-      <c r="J2">
-        <v>0.01604749516233659</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.161741333333333</v>
+        <v>0.033408</v>
       </c>
       <c r="N2">
-        <v>6.485224</v>
+        <v>0.100224</v>
       </c>
       <c r="O2">
-        <v>0.903256933110598</v>
+        <v>0.1260961573786332</v>
       </c>
       <c r="P2">
-        <v>0.903256933110598</v>
+        <v>0.1260961573786332</v>
       </c>
       <c r="Q2">
-        <v>0.8424644648808889</v>
+        <v>0.000458725248</v>
       </c>
       <c r="R2">
-        <v>7.582180183928001</v>
+        <v>0.004128527232000001</v>
       </c>
       <c r="S2">
-        <v>0.0144950112644393</v>
+        <v>7.241687599695823E-05</v>
       </c>
       <c r="T2">
-        <v>0.0144950112644393</v>
+        <v>7.241687599695822E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3897156666666667</v>
+        <v>0.013731</v>
       </c>
       <c r="H3">
-        <v>1.169147</v>
+        <v>0.041193</v>
       </c>
       <c r="I3">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511807</v>
       </c>
       <c r="J3">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511806</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.694598</v>
       </c>
       <c r="O3">
-        <v>0.09674306688940201</v>
+        <v>0.8739038426213668</v>
       </c>
       <c r="P3">
-        <v>0.096743066889402</v>
+        <v>0.8739038426213668</v>
       </c>
       <c r="Q3">
-        <v>0.09023190754511114</v>
+        <v>0.003179175046</v>
       </c>
       <c r="R3">
-        <v>0.8120871679060002</v>
+        <v>0.028612575414</v>
       </c>
       <c r="S3">
-        <v>0.001552483897897284</v>
+        <v>0.0005018819567542225</v>
       </c>
       <c r="T3">
-        <v>0.001552483897897283</v>
+        <v>0.0005018819567542224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>70.607376</v>
       </c>
       <c r="I4">
-        <v>0.9691437644584301</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="J4">
-        <v>0.9691437644584302</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.161741333333333</v>
+        <v>0.033408</v>
       </c>
       <c r="N4">
-        <v>6.485224</v>
+        <v>0.100224</v>
       </c>
       <c r="O4">
-        <v>0.903256933110598</v>
+        <v>0.1260961573786332</v>
       </c>
       <c r="P4">
-        <v>0.903256933110598</v>
+        <v>0.1260961573786332</v>
       </c>
       <c r="Q4">
-        <v>50.87829437913599</v>
+        <v>0.786283739136</v>
       </c>
       <c r="R4">
-        <v>457.904649412224</v>
+        <v>7.076553652224001</v>
       </c>
       <c r="S4">
-        <v>0.8753858244279813</v>
+        <v>0.1241270505246669</v>
       </c>
       <c r="T4">
-        <v>0.8753858244279814</v>
+        <v>0.1241270505246669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>70.607376</v>
       </c>
       <c r="I5">
-        <v>0.9691437644584301</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="J5">
-        <v>0.9691437644584302</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>0.694598</v>
       </c>
       <c r="O5">
-        <v>0.09674306688940201</v>
+        <v>0.8739038426213668</v>
       </c>
       <c r="P5">
-        <v>0.096743066889402</v>
+        <v>0.8739038426213668</v>
       </c>
       <c r="Q5">
         <v>5.449304683872001</v>
@@ -756,10 +756,10 @@
         <v>49.043742154848</v>
       </c>
       <c r="S5">
-        <v>0.09375794003044877</v>
+        <v>0.8602570346457195</v>
       </c>
       <c r="T5">
-        <v>0.09375794003044877</v>
+        <v>0.8602570346457195</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>1.078897</v>
       </c>
       <c r="I6">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686235</v>
       </c>
       <c r="J6">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686234</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.161741333333333</v>
+        <v>0.033408</v>
       </c>
       <c r="N6">
-        <v>6.485224</v>
+        <v>0.100224</v>
       </c>
       <c r="O6">
-        <v>0.903256933110598</v>
+        <v>0.1260961573786332</v>
       </c>
       <c r="P6">
-        <v>0.903256933110598</v>
+        <v>0.1260961573786332</v>
       </c>
       <c r="Q6">
-        <v>0.7774320797697777</v>
+        <v>0.012014596992</v>
       </c>
       <c r="R6">
-        <v>6.996888717928</v>
+        <v>0.108131372928</v>
       </c>
       <c r="S6">
-        <v>0.01337609741817733</v>
+        <v>0.001896689977969321</v>
       </c>
       <c r="T6">
-        <v>0.01337609741817733</v>
+        <v>0.001896689977969321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.078897</v>
       </c>
       <c r="I7">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686235</v>
       </c>
       <c r="J7">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686234</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.694598</v>
       </c>
       <c r="O7">
-        <v>0.09674306688940201</v>
+        <v>0.8739038426213668</v>
       </c>
       <c r="P7">
-        <v>0.096743066889402</v>
+        <v>0.8739038426213668</v>
       </c>
       <c r="Q7">
         <v>0.08326663315622224</v>
@@ -880,10 +880,10 @@
         <v>0.7493996984060001</v>
       </c>
       <c r="S7">
-        <v>0.001432642961055954</v>
+        <v>0.01314492601889302</v>
       </c>
       <c r="T7">
-        <v>0.001432642961055954</v>
+        <v>0.01314492601889302</v>
       </c>
     </row>
   </sheetData>
